--- a/results/pvalue_OFFSIDES_rare_transporter_AUPR+AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_rare_transporter_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.117</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.324</t>
+          <t>0.154</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.221</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.995</t>
+          <t>2.934</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.123</t>
+          <t>1.756</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.133</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.007</t>
+          <t>4.036</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>15.533</t>
+          <t>15.633</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
